--- a/Docs/BOM_VersaoMurch.xlsx
+++ b/Docs/BOM_VersaoMurch.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murch.2EASY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITREP\MarSidFla\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D64E55-392F-447E-AC1A-FC1572A06D00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1A4EA4-E07F-456E-9CA6-44AA67D47F13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{E933596C-960F-4A7E-A669-7C9107FE7628}"/>
   </bookViews>
   <sheets>
     <sheet name="Compra Murch" sheetId="5" r:id="rId1"/>
-    <sheet name="Pedido Eletropecas" sheetId="7" r:id="rId2"/>
-    <sheet name="Pedido Solda Fria" sheetId="6" r:id="rId3"/>
-    <sheet name="Pedido Multicomercial" sheetId="8" r:id="rId4"/>
-    <sheet name="consolidado pra comprar origina" sheetId="4" r:id="rId5"/>
-    <sheet name="BOM 31_08_18" sheetId="1" r:id="rId6"/>
-    <sheet name="specs" sheetId="2" r:id="rId7"/>
+    <sheet name="Pedido Solda Fria" sheetId="6" r:id="rId2"/>
+    <sheet name="Pedido Eletropecas" sheetId="7" r:id="rId3"/>
+    <sheet name="Pedido Santil" sheetId="11" r:id="rId4"/>
+    <sheet name="Pedido EBAY" sheetId="9" r:id="rId5"/>
+    <sheet name="Pedido Multicomercial" sheetId="8" r:id="rId6"/>
+    <sheet name="consolidado pra comprar origina" sheetId="4" r:id="rId7"/>
+    <sheet name="BOM 31_08_18" sheetId="1" r:id="rId8"/>
+    <sheet name="specs" sheetId="2" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Compra Murch'!$B$1:$I$28</definedName>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="236">
   <si>
     <t>Basico</t>
   </si>
@@ -614,15 +616,193 @@
   <si>
     <t>ebay comprei de 10 vias</t>
   </si>
+  <si>
+    <t>orderId</t>
+  </si>
+  <si>
+    <t>seller</t>
+  </si>
+  <si>
+    <t>itemIndex</t>
+  </si>
+  <si>
+    <t>purchaseDate</t>
+  </si>
+  <si>
+    <t>elapsedDays</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>specs</t>
+  </si>
+  <si>
+    <t>deliveryDate</t>
+  </si>
+  <si>
+    <t>etaDays</t>
+  </si>
+  <si>
+    <t>shipStatus</t>
+  </si>
+  <si>
+    <t>feedbackNotLeft</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
+    <t>trackingNo</t>
+  </si>
+  <si>
+    <t>263291205410-2297769440016!240000228359858</t>
+  </si>
+  <si>
+    <t>good-module</t>
+  </si>
+  <si>
+    <t>Sep 24, 2018</t>
+  </si>
+  <si>
+    <t>40pin 2.54mm Header Socket Single Row Strip Male&amp;Female PCB Connector Cool</t>
+  </si>
+  <si>
+    <t>Oct 11, 2018 - Nov 19, 2018</t>
+  </si>
+  <si>
+    <t>Not yet shipped</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/263291205410-0-1-00000002/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>152719343207-1778182671005!130000227898544</t>
+  </si>
+  <si>
+    <t>daryouk-0</t>
+  </si>
+  <si>
+    <t>20pcs / a lot 2.54mm Pitch 1*40 Pin 90 Degree Male Pin Single Row Pin Header</t>
+  </si>
+  <si>
+    <t>Oct 23, 2018 - Dec 04, 2018</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/152719343207-0-3/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>222157459606-2141429092012!130000227898546</t>
+  </si>
+  <si>
+    <t>kingelectronics15</t>
+  </si>
+  <si>
+    <t>10sets KF2510 4Pin Connector Kits 2.54mm Male Pin Header+Terminal+Female NEW</t>
+  </si>
+  <si>
+    <t>Oct 19, 2018 - Nov 30, 2018</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/222157459606-0-2/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>401462990779-729912934027!130000227898545</t>
+  </si>
+  <si>
+    <t>yibiaoxin1982</t>
+  </si>
+  <si>
+    <t>2.54mm Free Shipping 5-Pin 5P KF2510 5Pcs Brand New Plug Housing Connector</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/401462990779-0-1/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>381675289457-921318735025!130000227898548</t>
+  </si>
+  <si>
+    <t>survy2014</t>
+  </si>
+  <si>
+    <t>20sets KF2510 2Pin Connector Kits 2.54mm Male Pin Header+Terminal+Female</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/381675289457-0-1/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>401578720251-729912933027!130000227898547</t>
+  </si>
+  <si>
+    <t>allpartspipe2008</t>
+  </si>
+  <si>
+    <t>1M 10 WAY Flat Rainbow Color Ribbon Cable IDC 26 AWG for Data IDC Card Adapter</t>
+  </si>
+  <si>
+    <t>Oct 04, 2018 - Oct 23, 2018</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/401578720251-0-1/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>246933803015!100000227890861</t>
+  </si>
+  <si>
+    <t>hotworks2009</t>
+  </si>
+  <si>
+    <t>M3 Metric Brass Hex Spacer Female-Male Screws PC Case Standoff Riser Screws</t>
+  </si>
+  <si>
+    <t>Oct 10, 2018 - Nov 16, 2018</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/302688822051-0-0/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>302119924009-1554501618020!100000227890860</t>
+  </si>
+  <si>
+    <t>auelectronics8_6</t>
+  </si>
+  <si>
+    <t>10/20/50PCS M3 12 mm Hexagonal net nut Female brass Standoff/Spacer AU NEW</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/i/302119924009-0-1/s-l140/p.jpg</t>
+  </si>
+  <si>
+    <t>Caixa Steck Sex 300x220x120mm S/embutes - Sex322 - Steck</t>
+  </si>
+  <si>
+    <t>Caixa de Passagem 154x110x70mm Sem Embutes Ssx161 Steck</t>
+  </si>
+  <si>
+    <t>PRODUTO</t>
+  </si>
+  <si>
+    <t>NOVA QTDE</t>
+  </si>
+  <si>
+    <t>Valor: R$ 105,80</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;R$&quot;\ #,##0.00;[Red]\-&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,6 +894,32 @@
       <sz val="11"/>
       <color rgb="FF9B9B9B"/>
       <name val="Robotobold"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Robotobold"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -877,7 +1083,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1032,24 +1238,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1112,6 +1300,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1308,7 +1523,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA8F172A-E86C-428F-B3D8-271496B11134}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1358,7 +1573,7 @@
                   <a14:compatExt spid="_x0000_s6148"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D710BAB5-909B-4E95-9927-85BAEC829C9D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1408,7 +1623,7 @@
                   <a14:compatExt spid="_x0000_s6150"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833D29AA-5D84-4B45-94FD-72499158AF86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1458,7 +1673,7 @@
                   <a14:compatExt spid="_x0000_s6152"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1198B4BA-1F31-464F-A4C7-21B2CADDAD09}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2217,7 +2432,7 @@
   <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2226,32 +2441,32 @@
     <col min="2" max="2" width="96.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="17" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5703125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="17" style="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="81" customFormat="1" ht="30">
-      <c r="A1" s="77"/>
-      <c r="B1" s="78" t="s">
+    <row r="1" spans="1:9" s="75" customFormat="1" ht="30">
+      <c r="A1" s="71"/>
+      <c r="B1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="79">
+      <c r="D1" s="73">
         <v>6</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="72"/>
+      <c r="G1" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="78" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2273,11 +2488,11 @@
       <c r="F2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="70" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2299,10 +2514,10 @@
       <c r="F3" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="82"/>
+      <c r="H3" s="76"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
@@ -2322,10 +2537,10 @@
       <c r="F4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -2345,10 +2560,10 @@
       <c r="F5" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="82"/>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
@@ -2368,10 +2583,10 @@
       <c r="F6" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="82"/>
+      <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
@@ -2391,11 +2606,11 @@
       <c r="F7" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="82" t="s">
+      <c r="G7" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="76" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="70" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2417,10 +2632,10 @@
       <c r="F8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
@@ -2440,10 +2655,10 @@
       <c r="F9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="82" t="s">
+      <c r="G9" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="82"/>
+      <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
@@ -2463,10 +2678,10 @@
       <c r="F10" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="82"/>
+      <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
@@ -2476,47 +2691,47 @@
       <c r="C11" s="22">
         <v>3</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="D11" s="91" t="s">
         <v>87</v>
       </c>
       <c r="E11" s="59">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F11" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="82" t="s">
+      <c r="F11" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="82"/>
+      <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="96" t="s">
+      <c r="B12" s="90" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="22">
         <v>2</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="91" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F12" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="82" t="s">
+      <c r="F12" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="82"/>
+      <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="95" t="s">
+      <c r="B13" s="89" t="s">
         <v>170</v>
       </c>
       <c r="C13" s="58">
@@ -2532,10 +2747,10 @@
       <c r="F13" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="83"/>
+      <c r="H13" s="77"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
@@ -2545,21 +2760,21 @@
       <c r="C14" s="22">
         <v>1</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="91" t="s">
         <v>87</v>
       </c>
       <c r="E14" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F14" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" s="82" t="s">
+      <c r="F14" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H14" s="82"/>
-      <c r="I14" s="76" t="s">
+      <c r="H14" s="76"/>
+      <c r="I14" s="70" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2571,20 +2786,20 @@
       <c r="C15" s="56">
         <v>1</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="91" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="60">
         <v>2</v>
       </c>
-      <c r="F15" s="97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82" t="s">
+      <c r="F15" s="91" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="70" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2605,11 +2820,11 @@
       <c r="F16" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82" t="s">
+      <c r="G16" s="76"/>
+      <c r="H16" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="70" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2630,19 +2845,19 @@
       <c r="F17" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="82" t="s">
+      <c r="G17" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="89" t="s">
         <v>158</v>
       </c>
       <c r="C18" s="56">
@@ -2657,11 +2872,11 @@
       <c r="F18" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="76" t="s">
+      <c r="H18" s="76"/>
+      <c r="I18" s="70" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2683,9 +2898,9 @@
       <c r="F19" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="86" t="s">
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="80" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2707,10 +2922,10 @@
       <c r="F20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="82" t="s">
+      <c r="G20" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="82"/>
+      <c r="H20" s="76"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
@@ -2729,11 +2944,11 @@
       <c r="F21" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G21" s="82" t="s">
+      <c r="G21" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="76" t="s">
+      <c r="H21" s="76"/>
+      <c r="I21" s="70" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2754,11 +2969,11 @@
       <c r="F22" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="82" t="s">
+      <c r="G22" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="I22" s="76" t="s">
+      <c r="H22" s="76"/>
+      <c r="I22" s="70" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2779,9 +2994,9 @@
       <c r="F23" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="76" t="s">
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="70" t="s">
         <v>93</v>
       </c>
       <c r="J23" t="s">
@@ -2805,9 +3020,9 @@
       <c r="F24" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="76" t="s">
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="70" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2828,10 +3043,10 @@
       <c r="F25" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="76"/>
     </row>
     <row r="26" spans="1:10" ht="64.5" customHeight="1">
       <c r="A26" s="1"/>
@@ -2851,10 +3066,10 @@
       <c r="F26" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="82" t="s">
+      <c r="G26" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2876,10 +3091,10 @@
       <c r="F27" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G27" s="82" t="s">
+      <c r="G27" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I27" s="76" t="s">
+      <c r="I27" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2901,10 +3116,10 @@
       <c r="F28" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="G28" s="82" t="s">
+      <c r="G28" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="I28" s="76" t="s">
+      <c r="I28" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2925,10 +3140,10 @@
       <c r="F29" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G29" s="82" t="s">
+      <c r="G29" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H29" s="82"/>
+      <c r="H29" s="76"/>
     </row>
     <row r="30" spans="1:10">
       <c r="B30" s="21" t="s">
@@ -2947,11 +3162,11 @@
       <c r="F30" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="82" t="s">
+      <c r="G30" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="82"/>
-      <c r="I30" s="76" t="s">
+      <c r="H30" s="76"/>
+      <c r="I30" s="70" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2972,10 +3187,10 @@
       <c r="F31" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="82" t="s">
+      <c r="G31" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="82"/>
+      <c r="H31" s="76"/>
     </row>
     <row r="32" spans="1:10">
       <c r="B32" s="21" t="s">
@@ -2994,11 +3209,11 @@
       <c r="F32" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="82" t="s">
+      <c r="G32" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="76" t="s">
+      <c r="H32" s="76"/>
+      <c r="I32" s="70" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3019,10 +3234,10 @@
       <c r="F33" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G33" s="82" t="s">
+      <c r="G33" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H33" s="82"/>
+      <c r="H33" s="76"/>
     </row>
     <row r="34" spans="2:13">
       <c r="B34" s="21" t="s">
@@ -3041,10 +3256,10 @@
       <c r="F34" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G34" s="82" t="s">
+      <c r="G34" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="82"/>
+      <c r="H34" s="76"/>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="21" t="s">
@@ -3063,10 +3278,10 @@
       <c r="F35" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="82" t="s">
+      <c r="G35" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H35" s="82"/>
+      <c r="H35" s="76"/>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="38" t="s">
@@ -3085,10 +3300,10 @@
       <c r="F36" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="82" t="s">
+      <c r="G36" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H36" s="82"/>
+      <c r="H36" s="76"/>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="41" t="s">
@@ -3107,10 +3322,10 @@
       <c r="F37" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="G37" s="82" t="s">
+      <c r="G37" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H37" s="82"/>
+      <c r="H37" s="76"/>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="21" t="s">
@@ -3129,8 +3344,8 @@
       <c r="F38" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82" t="s">
+      <c r="G38" s="76"/>
+      <c r="H38" s="76" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3151,11 +3366,11 @@
       <c r="F39" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G39" s="82" t="s">
+      <c r="G39" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="76" t="s">
+      <c r="H39" s="76"/>
+      <c r="I39" s="70" t="s">
         <v>175</v>
       </c>
       <c r="K39" t="s">
@@ -3182,8 +3397,8 @@
       <c r="F40" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82" t="s">
+      <c r="G40" s="76"/>
+      <c r="H40" s="76" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3204,11 +3419,11 @@
       <c r="F41" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="82" t="s">
+      <c r="G41" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="82"/>
-      <c r="I41" s="76" t="s">
+      <c r="H41" s="76"/>
+      <c r="I41" s="70" t="s">
         <v>176</v>
       </c>
       <c r="L41" t="s">
@@ -3234,10 +3449,10 @@
       <c r="F42" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G42" s="82" t="s">
+      <c r="G42" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H42" s="82"/>
+      <c r="H42" s="76"/>
     </row>
     <row r="43" spans="2:13">
       <c r="B43" s="21" t="s">
@@ -3255,10 +3470,10 @@
       <c r="F43" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G43" s="82" t="s">
+      <c r="G43" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H43" s="82"/>
+      <c r="H43" s="76"/>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="21" t="s">
@@ -3276,13 +3491,13 @@
       <c r="F44" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G44" s="82" t="s">
+      <c r="G44" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="H44" s="82"/>
+      <c r="H44" s="76"/>
     </row>
     <row r="46" spans="2:13">
-      <c r="B46" s="94"/>
+      <c r="B46" s="88"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:I28" xr:uid="{2B0B9CAC-E068-4D32-9F50-9FC6264E2A05}"/>
@@ -3292,12 +3507,356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FEFBD1-47E5-4955-BF59-F8000BCD4BDF}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="34.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.13</v>
+      </c>
+      <c r="E3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
+      </c>
+      <c r="E4">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E5">
+        <v>4.6399999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0.34</v>
+      </c>
+      <c r="E6">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>0.45</v>
+      </c>
+      <c r="E7">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E8">
+        <v>5.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1.5</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>0.18</v>
+      </c>
+      <c r="E11">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>0.15</v>
+      </c>
+      <c r="E12">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0.09</v>
+      </c>
+      <c r="E13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0.13</v>
+      </c>
+      <c r="E15">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16">
+        <v>65</v>
+      </c>
+      <c r="D16">
+        <v>0.17</v>
+      </c>
+      <c r="E16">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0.68</v>
+      </c>
+      <c r="E18">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>8.89</v>
+      </c>
+      <c r="E19">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>4.43</v>
+      </c>
+      <c r="E20">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>3.26</v>
+      </c>
+      <c r="E21">
+        <v>35.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1.7</v>
+      </c>
+      <c r="E22">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23">
+        <v>166.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="104">
+        <v>180.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D53F44-82D3-4406-A637-593724F8664E}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3305,139 +3864,143 @@
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="88" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="88" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="82" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="88" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="99" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="90"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="89"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="91" t="s">
+      <c r="B4" s="100">
+        <f>A11+A18+A25+A32</f>
+        <v>76.040000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="84"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="83"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="85" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="85" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="92"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="93">
+    <row r="9" spans="1:2">
+      <c r="A9" s="86"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="87">
         <v>0.55400000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="93">
+    <row r="11" spans="1:2">
+      <c r="A11" s="87">
         <v>11.09</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="90"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="89"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="91" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="84"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="83"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="85" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="91" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="92"/>
+    <row r="16" spans="1:2">
+      <c r="A16" s="86"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="93">
+      <c r="A17" s="87">
         <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="93">
+      <c r="A18" s="87">
         <v>9.2200000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="90"/>
+      <c r="A19" s="84"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="89"/>
+      <c r="A20" s="83"/>
     </row>
     <row r="21" spans="1:1" ht="30">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="85" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="92"/>
+      <c r="A23" s="86"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="93">
+      <c r="A24" s="87">
         <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="93">
+      <c r="A25" s="87">
         <v>10.63</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="90"/>
+      <c r="A26" s="84"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="89"/>
+      <c r="A27" s="83"/>
     </row>
     <row r="28" spans="1:1" ht="30">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="85" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="30">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="85" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="92"/>
+      <c r="A30" s="86"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="93">
+      <c r="A31" s="87">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="93">
+      <c r="A32" s="87">
         <v>45.1</v>
       </c>
     </row>
@@ -3458,8 +4021,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId11" name="Control 8">
+        <control shapeId="6146" r:id="rId11" name="Control 2">
           <controlPr defaultSize="0" r:id="rId12">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId11" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6148" r:id="rId13" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId14">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6148" r:id="rId13" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId15" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId16">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>914400</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId15" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId17" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -3478,425 +4116,77 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6152" r:id="rId11" name="Control 8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId13" name="Control 6">
-          <controlPr defaultSize="0" r:id="rId14">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId13" name="Control 6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId15" name="Control 4">
-          <controlPr defaultSize="0" r:id="rId16">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6148" r:id="rId15" name="Control 4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId17" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId18">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>914400</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId17" name="Control 2"/>
+        <control shapeId="6152" r:id="rId17" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FEFBD1-47E5-4955-BF59-F8000BCD4BDF}">
-  <dimension ref="A1:E25"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3868D11D-ADF4-4EC2-9CBA-E9DD46BBCA01}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="34.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>109</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
+        <v>231</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="98">
+        <v>40.33</v>
+      </c>
+      <c r="F2" s="98">
+        <v>80.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>232</v>
       </c>
       <c r="D3">
-        <v>0.13</v>
-      </c>
-      <c r="E3">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <v>0.22</v>
-      </c>
-      <c r="E4">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E5">
-        <v>4.6399999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>0.34</v>
-      </c>
-      <c r="E6">
-        <v>7.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>0.45</v>
-      </c>
-      <c r="E7">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="E8">
-        <v>5.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>1.5</v>
-      </c>
-      <c r="E9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E10">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11">
-        <v>12</v>
-      </c>
-      <c r="D11">
-        <v>0.18</v>
-      </c>
-      <c r="E11">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0.09</v>
-      </c>
-      <c r="E13">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>125</v>
-      </c>
-      <c r="C14">
-        <v>24</v>
-      </c>
-      <c r="D14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E14">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15">
-        <v>25</v>
-      </c>
-      <c r="D15">
-        <v>0.13</v>
-      </c>
-      <c r="E15">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16">
-        <v>65</v>
-      </c>
-      <c r="D16">
-        <v>0.17</v>
-      </c>
-      <c r="E16">
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
-      <c r="D17">
-        <v>0.2</v>
-      </c>
-      <c r="E17">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>0.68</v>
-      </c>
-      <c r="E18">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19">
-        <v>8.89</v>
-      </c>
-      <c r="E19">
-        <v>17.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>4.43</v>
-      </c>
-      <c r="E20">
-        <v>26.58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>3.26</v>
-      </c>
-      <c r="E21">
-        <v>35.86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>1.7</v>
-      </c>
-      <c r="E22">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23">
-        <v>166.37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24">
-        <v>13.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25">
-        <v>180.31</v>
+      <c r="E3" s="98">
+        <v>12.57</v>
+      </c>
+      <c r="F3" s="98">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="F4" s="104" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3904,12 +4194,508 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCE6CB6-B760-42EC-9E47-48658235F650}">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="101">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2">
+        <v>55</v>
+      </c>
+      <c r="K2" t="s">
+        <v>196</v>
+      </c>
+      <c r="L2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="101">
+        <v>8.98</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="101">
+        <v>8.08</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="101">
+        <v>20.2</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I5" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
+        <v>197</v>
+      </c>
+      <c r="M5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="101">
+        <v>4.04</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
+      </c>
+      <c r="J6">
+        <v>66</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>197</v>
+      </c>
+      <c r="M6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="101">
+        <v>64.650000000000006</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
+        <v>197</v>
+      </c>
+      <c r="M7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="101">
+        <v>11.9</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>225</v>
+      </c>
+      <c r="J8">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="101">
+        <v>14.87</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>224</v>
+      </c>
+      <c r="I9" t="s">
+        <v>225</v>
+      </c>
+      <c r="J9">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="101">
+        <v>11.9</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
+        <v>197</v>
+      </c>
+      <c r="M10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="101">
+        <v>43.43</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I11" t="s">
+        <v>225</v>
+      </c>
+      <c r="J11">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103">
+        <f>SUM(F2:F11)</f>
+        <v>196.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87E34BC-15A2-4061-BEB5-CD44CDA90DA8}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4011,10 +4797,13 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" s="102" t="s">
         <v>157</v>
       </c>
-      <c r="E8">
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102">
         <v>76.459999999999994</v>
       </c>
     </row>
@@ -4023,7 +4812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2DD138-390C-4C58-95A5-7645B9BBF8DF}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4279,17 +5068,17 @@
       <c r="B13" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="71">
-        <v>1</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="73">
+      <c r="C13" s="93">
+        <v>1</v>
+      </c>
+      <c r="D13" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="95">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="92" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4298,20 +5087,20 @@
       <c r="B14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="70"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="92"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1"/>
       <c r="B15" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="70"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="92"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1"/>
@@ -4403,13 +5192,13 @@
       <c r="C20" s="26">
         <v>2</v>
       </c>
-      <c r="D20" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="74">
+      <c r="D20" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" s="96">
         <v>4</v>
       </c>
-      <c r="F20" s="70" t="s">
+      <c r="F20" s="92" t="s">
         <v>87</v>
       </c>
       <c r="G20" t="s">
@@ -4422,9 +5211,9 @@
         <v>68</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="70"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="92"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1"/>
@@ -4923,7 +5712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526B3EA2-C900-4FB0-81B4-820748CD4640}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4954,10 +5743,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="75"/>
+      <c r="E1" s="97"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
@@ -6013,7 +6802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EB9A5DB-8374-416E-A28D-4ED75B8F1D20}">
   <dimension ref="A1"/>
   <sheetViews>
